--- a/Time-Card ТЕНШ.467883.01/QUANTUM_PCI_v1_BOX_BOM.xlsx
+++ b/Time-Card ТЕНШ.467883.01/QUANTUM_PCI_v1_BOX_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Altium\SM_Project\QUANTUM\Time-Card ТЕНШ.467883.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEHA\Documents\GitHub\QUANTUM\Time-Card ТЕНШ.467883.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5499A47-D709-4CCF-A4D5-1894D030035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B73978-F43C-429F-AFA4-6AC0524589EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Примечание</t>
   </si>
@@ -130,6 +130,36 @@
   </si>
   <si>
     <t>https://www.chipdip.ru/product/kls8-0114a-3</t>
+  </si>
+  <si>
+    <t>https://onekrep.ru/magazin/search?gr_smart_search=1&amp;search_text=Винт+DIN+7985+M3x10</t>
+  </si>
+  <si>
+    <t>2000 шт.</t>
+  </si>
+  <si>
+    <t>https://onekrep.ru/magazin/search?gr_smart_search=1&amp;search_text=Винт+DIN+7985+M3x6</t>
+  </si>
+  <si>
+    <t>кол заказов</t>
+  </si>
+  <si>
+    <t>https://purolat.com/shop/vint/DIN-7985-gost-17473-80/vint_din_7985_m3x4_zn_gost_17473_80_2000_/?ysclid=mdonasflgb153587316</t>
+  </si>
+  <si>
+    <t>https://uniform-met.ru/catalog/nerzhaveyushchiy-krepezh/shayby-nerzhaveyushchie/shayba-din-125-a2/d3-shayba-din-125-a2/?r1=yandext&amp;r2&amp;utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=generic_dsa_poisk_57621353&amp;utm_term=_53229995467&amp;utm_content=id%7C0100000053229995467_53229995467%7Ccid%7C57621353%7Cgid%7C5391546497%7Caid%7C15755947630%7Cadp%7Cno%7Cpos%7Cpremium4%7Csrc%7Csearch_none%7Cdvc%7Cdesktop&amp;cm_id=57621353_5391546497_15755947630_53229995467_53229995467_none_search_type1_no_desktop_premium_213&amp;yclid=14448525682542116863</t>
+  </si>
+  <si>
+    <t>1 шт.</t>
+  </si>
+  <si>
+    <t>https://onekrep.ru/magazin/product/gajka-shestigrannaya-din-934-5</t>
+  </si>
+  <si>
+    <t>1000 шт.</t>
+  </si>
+  <si>
+    <t>https://www.promelec.ru/product/358490/?ysclid=mdontjeoyy732071569</t>
   </si>
 </sst>
 </file>
@@ -428,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -455,6 +485,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,14 +501,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -790,17 +821,19 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.05078125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3125" customWidth="1"/>
-    <col min="4" max="4" width="28.20703125" customWidth="1"/>
+    <col min="1" max="1" width="68" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -812,13 +845,16 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -829,8 +865,17 @@
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -841,8 +886,17 @@
         <v>2</v>
       </c>
       <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -853,8 +907,17 @@
         <v>8</v>
       </c>
       <c r="D5" s="7"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -866,8 +929,17 @@
         <v>28</v>
       </c>
       <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -879,12 +951,21 @@
         <v>14</v>
       </c>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2">
@@ -893,33 +974,48 @@
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F8">
+        <f t="shared" ref="F4:F12" si="0">C8*10</f>
+        <v>20</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.75">
-      <c r="A11" s="19" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -928,28 +1024,41 @@
       <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.75">
-      <c r="A12" s="19" t="s">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>4</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -961,7 +1070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -975,82 +1084,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1059,19 +1168,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
     </row>
-    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="1:4" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -1083,8 +1192,16 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{6C5F32E9-4E54-4D3F-9F26-3070B42A2F3E}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{EE7908A3-A74C-4121-8A81-7CC46AE3AD48}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{1C2E204D-396D-4CA1-9A57-903C89161EC8}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{BC40D93D-D057-4904-86AF-37B74DA8E079}"/>
+    <hyperlink ref="H7" r:id="rId5" xr:uid="{68E5FBFC-FE96-43F3-B954-9907037C683B}"/>
+    <hyperlink ref="H6" r:id="rId6" display="https://uniform-met.ru/catalog/nerzhaveyushchiy-krepezh/shayby-nerzhaveyushchie/shayba-din-125-a2/d3-shayba-din-125-a2/?r1=yandext&amp;r2&amp;utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=generic_dsa_poisk_57621353&amp;utm_term=_53229995467&amp;utm_content=id%7C0100000053229995467_53229995467%7Ccid%7C57621353%7Cgid%7C5391546497%7Caid%7C15755947630%7Cadp%7Cno%7Cpos%7Cpremium4%7Csrc%7Csearch_none%7Cdvc%7Cdesktop&amp;cm_id=57621353_5391546497_15755947630_53229995467_53229995467_none_search_type1_no_desktop_premium_213&amp;yclid=14448525682542116863" xr:uid="{8A4F7D68-6D61-41C4-8161-7D83AB9932C1}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{D350DDC1-86BF-4AA2-8487-CC7B5AC6C914}"/>
+    <hyperlink ref="H8" r:id="rId8" xr:uid="{F352784E-CC46-4931-AB2E-EA824BB846C6}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{35126EBD-9A2C-4244-A0DC-D8044F6D32FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Time-Card ТЕНШ.467883.01/QUANTUM_PCI_v1_BOX_BOM.xlsx
+++ b/Time-Card ТЕНШ.467883.01/QUANTUM_PCI_v1_BOX_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEHA\Documents\GitHub\QUANTUM\Time-Card ТЕНШ.467883.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B73978-F43C-429F-AFA4-6AC0524589EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F12704-BFFA-4CE2-9887-09414C86B52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E3EE227E-3332-401A-8586-F085463C8144}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Примечание</t>
   </si>
@@ -141,32 +141,35 @@
     <t>https://onekrep.ru/magazin/search?gr_smart_search=1&amp;search_text=Винт+DIN+7985+M3x6</t>
   </si>
   <si>
-    <t>кол заказов</t>
-  </si>
-  <si>
     <t>https://purolat.com/shop/vint/DIN-7985-gost-17473-80/vint_din_7985_m3x4_zn_gost_17473_80_2000_/?ysclid=mdonasflgb153587316</t>
   </si>
   <si>
     <t>https://uniform-met.ru/catalog/nerzhaveyushchiy-krepezh/shayby-nerzhaveyushchie/shayba-din-125-a2/d3-shayba-din-125-a2/?r1=yandext&amp;r2&amp;utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=generic_dsa_poisk_57621353&amp;utm_term=_53229995467&amp;utm_content=id%7C0100000053229995467_53229995467%7Ccid%7C57621353%7Cgid%7C5391546497%7Caid%7C15755947630%7Cadp%7Cno%7Cpos%7Cpremium4%7Csrc%7Csearch_none%7Cdvc%7Cdesktop&amp;cm_id=57621353_5391546497_15755947630_53229995467_53229995467_none_search_type1_no_desktop_premium_213&amp;yclid=14448525682542116863</t>
   </si>
   <si>
-    <t>1 шт.</t>
-  </si>
-  <si>
     <t>https://onekrep.ru/magazin/product/gajka-shestigrannaya-din-934-5</t>
   </si>
   <si>
-    <t>1000 шт.</t>
-  </si>
-  <si>
     <t>https://www.promelec.ru/product/358490/?ysclid=mdontjeoyy732071569</t>
+  </si>
+  <si>
+    <t>https://www.promelec.ru/product/796039/?ysclid=mdplb2f2od365403510</t>
+  </si>
+  <si>
+    <t>https://ocha.ru/product/32769119021</t>
+  </si>
+  <si>
+    <t>100 шт.</t>
+  </si>
+  <si>
+    <t>40 шт.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,15 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF070707"/>
       <name val="Calibri"/>
@@ -458,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -476,22 +470,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,8 +496,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -818,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55A3C22-FB4A-45C2-B432-5B25C2568DE7}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,11 +822,10 @@
     <col min="1" max="1" width="68" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="46.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="91.7109375" customWidth="1"/>
+    <col min="7" max="7" width="91.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -845,16 +837,13 @@
       </c>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -868,14 +857,11 @@
       <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -889,14 +875,11 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="24" t="s">
+      <c r="G4" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -910,14 +893,11 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
@@ -930,16 +910,13 @@
       </c>
       <c r="D6" s="9"/>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -952,70 +929,64 @@
       </c>
       <c r="D7" s="9"/>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F4:F12" si="0">C8*10</f>
-        <v>20</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1024,41 +995,40 @@
       <c r="C11" s="2">
         <v>8</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="G11" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1066,11 +1036,17 @@
       <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
@@ -1080,96 +1056,102 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="9"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="9"/>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="9"/>
@@ -1181,10 +1163,10 @@
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1192,16 +1174,25 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{6C5F32E9-4E54-4D3F-9F26-3070B42A2F3E}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{EE7908A3-A74C-4121-8A81-7CC46AE3AD48}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{1C2E204D-396D-4CA1-9A57-903C89161EC8}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{BC40D93D-D057-4904-86AF-37B74DA8E079}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{68E5FBFC-FE96-43F3-B954-9907037C683B}"/>
-    <hyperlink ref="H6" r:id="rId6" display="https://uniform-met.ru/catalog/nerzhaveyushchiy-krepezh/shayby-nerzhaveyushchie/shayba-din-125-a2/d3-shayba-din-125-a2/?r1=yandext&amp;r2&amp;utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=generic_dsa_poisk_57621353&amp;utm_term=_53229995467&amp;utm_content=id%7C0100000053229995467_53229995467%7Ccid%7C57621353%7Cgid%7C5391546497%7Caid%7C15755947630%7Cadp%7Cno%7Cpos%7Cpremium4%7Csrc%7Csearch_none%7Cdvc%7Cdesktop&amp;cm_id=57621353_5391546497_15755947630_53229995467_53229995467_none_search_type1_no_desktop_premium_213&amp;yclid=14448525682542116863" xr:uid="{8A4F7D68-6D61-41C4-8161-7D83AB9932C1}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{EE7908A3-A74C-4121-8A81-7CC46AE3AD48}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{1C2E204D-396D-4CA1-9A57-903C89161EC8}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{BC40D93D-D057-4904-86AF-37B74DA8E079}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{68E5FBFC-FE96-43F3-B954-9907037C683B}"/>
+    <hyperlink ref="G6" r:id="rId6" display="https://uniform-met.ru/catalog/nerzhaveyushchiy-krepezh/shayby-nerzhaveyushchie/shayba-din-125-a2/d3-shayba-din-125-a2/?r1=yandext&amp;r2&amp;utm_medium=cpc&amp;utm_source=yandex&amp;utm_campaign=generic_dsa_poisk_57621353&amp;utm_term=_53229995467&amp;utm_content=id%7C0100000053229995467_53229995467%7Ccid%7C57621353%7Cgid%7C5391546497%7Caid%7C15755947630%7Cadp%7Cno%7Cpos%7Cpremium4%7Csrc%7Csearch_none%7Cdvc%7Cdesktop&amp;cm_id=57621353_5391546497_15755947630_53229995467_53229995467_none_search_type1_no_desktop_premium_213&amp;yclid=14448525682542116863" xr:uid="{8A4F7D68-6D61-41C4-8161-7D83AB9932C1}"/>
     <hyperlink ref="D11" r:id="rId7" xr:uid="{D350DDC1-86BF-4AA2-8487-CC7B5AC6C914}"/>
-    <hyperlink ref="H8" r:id="rId8" xr:uid="{F352784E-CC46-4931-AB2E-EA824BB846C6}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{35126EBD-9A2C-4244-A0DC-D8044F6D32FA}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{35126EBD-9A2C-4244-A0DC-D8044F6D32FA}"/>
+    <hyperlink ref="G12" r:id="rId9" xr:uid="{3851163E-4754-48F1-8229-C7CBD9A6B5AE}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{DB95642C-0373-474B-8B7B-224FA49CFA8F}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{1CF24F93-A0E7-4854-B0E1-C6A7E01C06A0}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{2708E2E2-518B-433A-B18B-A456D80ECCED}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{AFE642E3-9BB0-489B-96A8-AAF3D55B8C01}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{3E504C01-C287-4587-AAA5-7A87593EE383}"/>
+    <hyperlink ref="D8" r:id="rId15" xr:uid="{9C94A128-D3E6-40A0-B1F1-A63B7C436F48}"/>
+    <hyperlink ref="G15" r:id="rId16" xr:uid="{2F29E56D-3820-4B9F-93DD-FFEC3A09546F}"/>
+    <hyperlink ref="G8" r:id="rId17" xr:uid="{7AC17F03-4FBF-4958-ABD9-B1CD2B61CC8C}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{0DFC2EDC-0EF3-4803-B104-482C0F30BF5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>